--- a/GameDocument/MessageBox.xlsx
+++ b/GameDocument/MessageBox.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,6 +521,120 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,120 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,878 +945,1031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="32" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="18" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="40"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="40"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="40"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="40"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="40"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="18" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="27" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" thickTop="1"/>
     <row r="47" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="48" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" thickTop="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="2" t="s">
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
     </row>
     <row r="51" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="2" t="s">
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
     </row>
     <row r="52" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="2" t="s">
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="2" t="s">
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="2" t="s">
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H3:I11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="J41:L44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H12:I16"/>
+    <mergeCell ref="J12:L16"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="J39:L39"/>
     <mergeCell ref="J40:L40"/>
@@ -1840,159 +1994,6 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="J41:L44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H12:I16"/>
-    <mergeCell ref="J12:L16"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H3:I11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:M54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
